--- a/INTLINE/data/144/SCB/NR0103ENS2010T06Kv.xlsx
+++ b/INTLINE/data/144/SCB/NR0103ENS2010T06Kv.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
-  <x:si>
-    <x:t>GPD: production approach (ESA2010), constant prices reference year 2020, SEK million by industrial classification NACE Rev. 2 and quarter</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+  <x:si>
+    <x:t>GPD: production approach (ESA2010), constant prices reference year 2021, SEK million by industrial classification NACE Rev. 2 and quarter</x:t>
   </x:si>
   <x:si>
     <x:t>1980K1</x:t>
@@ -523,6 +523,9 @@
     <x:t>2021K4</x:t>
   </x:si>
   <x:si>
+    <x:t>2022K1</x:t>
+  </x:si>
+  <x:si>
     <x:t>C10-C33 manufacturing industry</x:t>
   </x:si>
   <x:si>
@@ -541,7 +544,7 @@
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220228 08:00</x:t>
+    <x:t>20220530 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -562,7 +565,7 @@
     <x:t>nrinfo@scb.se</x:t>
   </x:si>
   <x:si>
-    <x:t>(SCB) Statistikservice, Statistics Sweden</x:t>
+    <x:t xml:space="preserve"> Statistikservice, Statistics Sweden</x:t>
   </x:si>
   <x:si>
     <x:t>information@scb.se</x:t>
@@ -998,21 +1001,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FM47"/>
+  <x:dimension ref="A1:FN47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="169" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="170" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:169">
+    <x:row r="1" spans="1:170">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:169">
+    <x:row r="3" spans="1:170">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1517,651 +1520,657 @@
       <x:c r="FM3" s="2" t="s">
         <x:v>168</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:169">
+      <x:c r="FN3" s="2" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:170">
       <x:c r="A4" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F4" s="4" t="n">
-        <x:v>55993</x:v>
+        <x:v>59057</x:v>
       </x:c>
       <x:c r="G4" s="4" t="n">
-        <x:v>63555</x:v>
+        <x:v>67033</x:v>
       </x:c>
       <x:c r="H4" s="4" t="n">
-        <x:v>56195</x:v>
+        <x:v>59271</x:v>
       </x:c>
       <x:c r="I4" s="4" t="n">
-        <x:v>70072</x:v>
+        <x:v>73906</x:v>
       </x:c>
       <x:c r="J4" s="4" t="n">
-        <x:v>60657</x:v>
+        <x:v>63977</x:v>
       </x:c>
       <x:c r="K4" s="4" t="n">
-        <x:v>64638</x:v>
+        <x:v>68175</x:v>
       </x:c>
       <x:c r="L4" s="4" t="n">
-        <x:v>53188</x:v>
+        <x:v>56098</x:v>
       </x:c>
       <x:c r="M4" s="4" t="n">
-        <x:v>66557</x:v>
+        <x:v>70200</x:v>
       </x:c>
       <x:c r="N4" s="4" t="n">
-        <x:v>65121</x:v>
+        <x:v>68685</x:v>
       </x:c>
       <x:c r="O4" s="4" t="n">
-        <x:v>66339</x:v>
+        <x:v>69970</x:v>
       </x:c>
       <x:c r="P4" s="4" t="n">
-        <x:v>56921</x:v>
+        <x:v>60036</x:v>
       </x:c>
       <x:c r="Q4" s="4" t="n">
-        <x:v>70882</x:v>
+        <x:v>74760</x:v>
       </x:c>
       <x:c r="R4" s="4" t="n">
-        <x:v>72269</x:v>
+        <x:v>76224</x:v>
       </x:c>
       <x:c r="S4" s="4" t="n">
-        <x:v>72520</x:v>
+        <x:v>76489</x:v>
       </x:c>
       <x:c r="T4" s="4" t="n">
-        <x:v>60246</x:v>
+        <x:v>63542</x:v>
       </x:c>
       <x:c r="U4" s="4" t="n">
-        <x:v>78150</x:v>
+        <x:v>82427</x:v>
       </x:c>
       <x:c r="V4" s="4" t="n">
-        <x:v>67978</x:v>
+        <x:v>71698</x:v>
       </x:c>
       <x:c r="W4" s="4" t="n">
-        <x:v>77971</x:v>
+        <x:v>82237</x:v>
       </x:c>
       <x:c r="X4" s="4" t="n">
-        <x:v>65551</x:v>
+        <x:v>69138</x:v>
       </x:c>
       <x:c r="Y4" s="4" t="n">
-        <x:v>79788</x:v>
+        <x:v>84156</x:v>
       </x:c>
       <x:c r="Z4" s="4" t="n">
-        <x:v>72773</x:v>
+        <x:v>76755</x:v>
       </x:c>
       <x:c r="AA4" s="4" t="n">
-        <x:v>77983</x:v>
+        <x:v>82251</x:v>
       </x:c>
       <x:c r="AB4" s="4" t="n">
-        <x:v>64126</x:v>
+        <x:v>67635</x:v>
       </x:c>
       <x:c r="AC4" s="4" t="n">
-        <x:v>79357</x:v>
+        <x:v>83701</x:v>
       </x:c>
       <x:c r="AD4" s="4" t="n">
-        <x:v>72932</x:v>
+        <x:v>76924</x:v>
       </x:c>
       <x:c r="AE4" s="4" t="n">
-        <x:v>78391</x:v>
+        <x:v>82681</x:v>
       </x:c>
       <x:c r="AF4" s="4" t="n">
-        <x:v>66580</x:v>
+        <x:v>70224</x:v>
       </x:c>
       <x:c r="AG4" s="4" t="n">
-        <x:v>83262</x:v>
+        <x:v>87818</x:v>
       </x:c>
       <x:c r="AH4" s="4" t="n">
-        <x:v>77656</x:v>
+        <x:v>81906</x:v>
       </x:c>
       <x:c r="AI4" s="4" t="n">
-        <x:v>81715</x:v>
+        <x:v>86187</x:v>
       </x:c>
       <x:c r="AJ4" s="4" t="n">
-        <x:v>67034</x:v>
+        <x:v>70702</x:v>
       </x:c>
       <x:c r="AK4" s="4" t="n">
-        <x:v>84708</x:v>
+        <x:v>89344</x:v>
       </x:c>
       <x:c r="AL4" s="4" t="n">
-        <x:v>77319</x:v>
+        <x:v>81551</x:v>
       </x:c>
       <x:c r="AM4" s="4" t="n">
-        <x:v>82660</x:v>
+        <x:v>87184</x:v>
       </x:c>
       <x:c r="AN4" s="4" t="n">
-        <x:v>67093</x:v>
+        <x:v>70765</x:v>
       </x:c>
       <x:c r="AO4" s="4" t="n">
-        <x:v>83897</x:v>
+        <x:v>88487</x:v>
       </x:c>
       <x:c r="AP4" s="4" t="n">
-        <x:v>73660</x:v>
+        <x:v>77691</x:v>
       </x:c>
       <x:c r="AQ4" s="4" t="n">
-        <x:v>81605</x:v>
+        <x:v>86071</x:v>
       </x:c>
       <x:c r="AR4" s="4" t="n">
-        <x:v>67459</x:v>
+        <x:v>71150</x:v>
       </x:c>
       <x:c r="AS4" s="4" t="n">
-        <x:v>83308</x:v>
+        <x:v>87868</x:v>
       </x:c>
       <x:c r="AT4" s="4" t="n">
-        <x:v>75896</x:v>
+        <x:v>80050</x:v>
       </x:c>
       <x:c r="AU4" s="4" t="n">
-        <x:v>77462</x:v>
+        <x:v>81702</x:v>
       </x:c>
       <x:c r="AV4" s="4" t="n">
-        <x:v>64372</x:v>
+        <x:v>67894</x:v>
       </x:c>
       <x:c r="AW4" s="4" t="n">
-        <x:v>76041</x:v>
+        <x:v>80202</x:v>
       </x:c>
       <x:c r="AX4" s="4" t="n">
-        <x:v>73202</x:v>
+        <x:v>77208</x:v>
       </x:c>
       <x:c r="AY4" s="4" t="n">
-        <x:v>73711</x:v>
+        <x:v>77745</x:v>
       </x:c>
       <x:c r="AZ4" s="4" t="n">
-        <x:v>63920</x:v>
+        <x:v>67418</x:v>
       </x:c>
       <x:c r="BA4" s="4" t="n">
-        <x:v>70105</x:v>
+        <x:v>73942</x:v>
       </x:c>
       <x:c r="BB4" s="4" t="n">
-        <x:v>69329</x:v>
+        <x:v>73124</x:v>
       </x:c>
       <x:c r="BC4" s="4" t="n">
-        <x:v>73730</x:v>
+        <x:v>77765</x:v>
       </x:c>
       <x:c r="BD4" s="4" t="n">
-        <x:v>63475</x:v>
+        <x:v>66949</x:v>
       </x:c>
       <x:c r="BE4" s="4" t="n">
-        <x:v>75289</x:v>
+        <x:v>79409</x:v>
       </x:c>
       <x:c r="BF4" s="4" t="n">
-        <x:v>81205</x:v>
+        <x:v>85649</x:v>
       </x:c>
       <x:c r="BG4" s="4" t="n">
-        <x:v>84460</x:v>
+        <x:v>89082</x:v>
       </x:c>
       <x:c r="BH4" s="4" t="n">
-        <x:v>71036</x:v>
+        <x:v>74924</x:v>
       </x:c>
       <x:c r="BI4" s="4" t="n">
-        <x:v>89416</x:v>
+        <x:v>94310</x:v>
       </x:c>
       <x:c r="BJ4" s="4" t="n">
-        <x:v>98003</x:v>
+        <x:v>103367</x:v>
       </x:c>
       <x:c r="BK4" s="4" t="n">
-        <x:v>95250</x:v>
+        <x:v>100463</x:v>
       </x:c>
       <x:c r="BL4" s="4" t="n">
-        <x:v>78882</x:v>
+        <x:v>83199</x:v>
       </x:c>
       <x:c r="BM4" s="4" t="n">
-        <x:v>97144</x:v>
+        <x:v>102460</x:v>
       </x:c>
       <x:c r="BN4" s="4" t="n">
-        <x:v>101713</x:v>
+        <x:v>107280</x:v>
       </x:c>
       <x:c r="BO4" s="4" t="n">
-        <x:v>98644</x:v>
+        <x:v>104042</x:v>
       </x:c>
       <x:c r="BP4" s="4" t="n">
-        <x:v>82203</x:v>
+        <x:v>86702</x:v>
       </x:c>
       <x:c r="BQ4" s="4" t="n">
-        <x:v>100088</x:v>
+        <x:v>105566</x:v>
       </x:c>
       <x:c r="BR4" s="4" t="n">
-        <x:v>101614</x:v>
+        <x:v>107175</x:v>
       </x:c>
       <x:c r="BS4" s="4" t="n">
-        <x:v>107486</x:v>
+        <x:v>113369</x:v>
       </x:c>
       <x:c r="BT4" s="4" t="n">
-        <x:v>92150</x:v>
+        <x:v>97193</x:v>
       </x:c>
       <x:c r="BU4" s="4" t="n">
-        <x:v>113510</x:v>
+        <x:v>119722</x:v>
       </x:c>
       <x:c r="BV4" s="4" t="n">
-        <x:v>113822</x:v>
+        <x:v>120052</x:v>
       </x:c>
       <x:c r="BW4" s="4" t="n">
-        <x:v>117840</x:v>
+        <x:v>124289</x:v>
       </x:c>
       <x:c r="BX4" s="4" t="n">
-        <x:v>101404</x:v>
+        <x:v>106954</x:v>
       </x:c>
       <x:c r="BY4" s="4" t="n">
-        <x:v>118896</x:v>
+        <x:v>125402</x:v>
       </x:c>
       <x:c r="BZ4" s="4" t="n">
-        <x:v>124646</x:v>
+        <x:v>131468</x:v>
       </x:c>
       <x:c r="CA4" s="4" t="n">
-        <x:v>124650</x:v>
+        <x:v>131472</x:v>
       </x:c>
       <x:c r="CB4" s="4" t="n">
-        <x:v>108801</x:v>
+        <x:v>114755</x:v>
       </x:c>
       <x:c r="CC4" s="4" t="n">
-        <x:v>129543</x:v>
+        <x:v>136633</x:v>
       </x:c>
       <x:c r="CD4" s="4" t="n">
-        <x:v>133517</x:v>
+        <x:v>140824</x:v>
       </x:c>
       <x:c r="CE4" s="4" t="n">
-        <x:v>139212</x:v>
+        <x:v>146831</x:v>
       </x:c>
       <x:c r="CF4" s="4" t="n">
-        <x:v>119501</x:v>
+        <x:v>126041</x:v>
       </x:c>
       <x:c r="CG4" s="4" t="n">
-        <x:v>141398</x:v>
+        <x:v>149137</x:v>
       </x:c>
       <x:c r="CH4" s="4" t="n">
-        <x:v>134477</x:v>
+        <x:v>141837</x:v>
       </x:c>
       <x:c r="CI4" s="4" t="n">
-        <x:v>136020</x:v>
+        <x:v>143464</x:v>
       </x:c>
       <x:c r="CJ4" s="4" t="n">
-        <x:v>118201</x:v>
+        <x:v>124670</x:v>
       </x:c>
       <x:c r="CK4" s="4" t="n">
-        <x:v>140295</x:v>
+        <x:v>147973</x:v>
       </x:c>
       <x:c r="CL4" s="4" t="n">
-        <x:v>134967</x:v>
+        <x:v>142353</x:v>
       </x:c>
       <x:c r="CM4" s="4" t="n">
-        <x:v>144158</x:v>
+        <x:v>152048</x:v>
       </x:c>
       <x:c r="CN4" s="4" t="n">
-        <x:v>128228</x:v>
+        <x:v>135246</x:v>
       </x:c>
       <x:c r="CO4" s="4" t="n">
-        <x:v>146040</x:v>
+        <x:v>154032</x:v>
       </x:c>
       <x:c r="CP4" s="4" t="n">
-        <x:v>144579</x:v>
+        <x:v>152491</x:v>
       </x:c>
       <x:c r="CQ4" s="4" t="n">
-        <x:v>144683</x:v>
+        <x:v>152601</x:v>
       </x:c>
       <x:c r="CR4" s="4" t="n">
-        <x:v>136748</x:v>
+        <x:v>144232</x:v>
       </x:c>
       <x:c r="CS4" s="4" t="n">
-        <x:v>146439</x:v>
+        <x:v>154454</x:v>
       </x:c>
       <x:c r="CT4" s="4" t="n">
-        <x:v>148069</x:v>
+        <x:v>156173</x:v>
       </x:c>
       <x:c r="CU4" s="4" t="n">
-        <x:v>155890</x:v>
+        <x:v>164421</x:v>
       </x:c>
       <x:c r="CV4" s="4" t="n">
-        <x:v>142213</x:v>
+        <x:v>149996</x:v>
       </x:c>
       <x:c r="CW4" s="4" t="n">
-        <x:v>158819</x:v>
+        <x:v>167511</x:v>
       </x:c>
       <x:c r="CX4" s="4" t="n">
-        <x:v>149060</x:v>
+        <x:v>157218</x:v>
       </x:c>
       <x:c r="CY4" s="4" t="n">
-        <x:v>159622</x:v>
+        <x:v>168358</x:v>
       </x:c>
       <x:c r="CZ4" s="4" t="n">
-        <x:v>148632</x:v>
+        <x:v>156766</x:v>
       </x:c>
       <x:c r="DA4" s="4" t="n">
-        <x:v>165127</x:v>
+        <x:v>174164</x:v>
       </x:c>
       <x:c r="DB4" s="4" t="n">
-        <x:v>163917</x:v>
+        <x:v>172888</x:v>
       </x:c>
       <x:c r="DC4" s="4" t="n">
-        <x:v>168223</x:v>
+        <x:v>177430</x:v>
       </x:c>
       <x:c r="DD4" s="4" t="n">
-        <x:v>160338</x:v>
+        <x:v>169113</x:v>
       </x:c>
       <x:c r="DE4" s="4" t="n">
-        <x:v>176107</x:v>
+        <x:v>185744</x:v>
       </x:c>
       <x:c r="DF4" s="4" t="n">
-        <x:v>171996</x:v>
+        <x:v>181409</x:v>
       </x:c>
       <x:c r="DG4" s="4" t="n">
-        <x:v>172630</x:v>
+        <x:v>182078</x:v>
       </x:c>
       <x:c r="DH4" s="4" t="n">
-        <x:v>164375</x:v>
+        <x:v>173371</x:v>
       </x:c>
       <x:c r="DI4" s="4" t="n">
-        <x:v>186984</x:v>
+        <x:v>197216</x:v>
       </x:c>
       <x:c r="DJ4" s="4" t="n">
-        <x:v>171700</x:v>
+        <x:v>181096</x:v>
       </x:c>
       <x:c r="DK4" s="4" t="n">
-        <x:v>176358</x:v>
+        <x:v>186009</x:v>
       </x:c>
       <x:c r="DL4" s="4" t="n">
-        <x:v>163426</x:v>
+        <x:v>172369</x:v>
       </x:c>
       <x:c r="DM4" s="4" t="n">
-        <x:v>155552</x:v>
+        <x:v>164066</x:v>
       </x:c>
       <x:c r="DN4" s="4" t="n">
-        <x:v>131092</x:v>
+        <x:v>138266</x:v>
       </x:c>
       <x:c r="DO4" s="4" t="n">
-        <x:v>128456</x:v>
+        <x:v>135486</x:v>
       </x:c>
       <x:c r="DP4" s="4" t="n">
-        <x:v>124097</x:v>
+        <x:v>130889</x:v>
       </x:c>
       <x:c r="DQ4" s="4" t="n">
-        <x:v>128638</x:v>
+        <x:v>135677</x:v>
       </x:c>
       <x:c r="DR4" s="4" t="n">
-        <x:v>146334</x:v>
+        <x:v>154342</x:v>
       </x:c>
       <x:c r="DS4" s="4" t="n">
-        <x:v>156272</x:v>
+        <x:v>164824</x:v>
       </x:c>
       <x:c r="DT4" s="4" t="n">
-        <x:v>152424</x:v>
+        <x:v>160766</x:v>
       </x:c>
       <x:c r="DU4" s="4" t="n">
-        <x:v>167875</x:v>
+        <x:v>177062</x:v>
       </x:c>
       <x:c r="DV4" s="4" t="n">
-        <x:v>170715</x:v>
+        <x:v>180057</x:v>
       </x:c>
       <x:c r="DW4" s="4" t="n">
-        <x:v>165392</x:v>
+        <x:v>174443</x:v>
       </x:c>
       <x:c r="DX4" s="4" t="n">
-        <x:v>159685</x:v>
+        <x:v>168424</x:v>
       </x:c>
       <x:c r="DY4" s="4" t="n">
-        <x:v>163412</x:v>
+        <x:v>172356</x:v>
       </x:c>
       <x:c r="DZ4" s="4" t="n">
-        <x:v>158803</x:v>
+        <x:v>167494</x:v>
       </x:c>
       <x:c r="EA4" s="4" t="n">
-        <x:v>157004</x:v>
+        <x:v>165597</x:v>
       </x:c>
       <x:c r="EB4" s="4" t="n">
-        <x:v>149889</x:v>
+        <x:v>158091</x:v>
       </x:c>
       <x:c r="EC4" s="4" t="n">
-        <x:v>146343</x:v>
+        <x:v>154352</x:v>
       </x:c>
       <x:c r="ED4" s="4" t="n">
-        <x:v>151958</x:v>
+        <x:v>160274</x:v>
       </x:c>
       <x:c r="EE4" s="4" t="n">
-        <x:v>150200</x:v>
+        <x:v>158420</x:v>
       </x:c>
       <x:c r="EF4" s="4" t="n">
-        <x:v>141055</x:v>
+        <x:v>148774</x:v>
       </x:c>
       <x:c r="EG4" s="4" t="n">
-        <x:v>147650</x:v>
+        <x:v>155731</x:v>
       </x:c>
       <x:c r="EH4" s="4" t="n">
-        <x:v>147741</x:v>
+        <x:v>155826</x:v>
       </x:c>
       <x:c r="EI4" s="4" t="n">
-        <x:v>149008</x:v>
+        <x:v>157163</x:v>
       </x:c>
       <x:c r="EJ4" s="4" t="n">
-        <x:v>138324</x:v>
+        <x:v>145894</x:v>
       </x:c>
       <x:c r="EK4" s="4" t="n">
-        <x:v>149080</x:v>
+        <x:v>157239</x:v>
       </x:c>
       <x:c r="EL4" s="4" t="n">
-        <x:v>149333</x:v>
+        <x:v>157506</x:v>
       </x:c>
       <x:c r="EM4" s="4" t="n">
-        <x:v>158919</x:v>
+        <x:v>167616</x:v>
       </x:c>
       <x:c r="EN4" s="4" t="n">
-        <x:v>148438</x:v>
+        <x:v>156562</x:v>
       </x:c>
       <x:c r="EO4" s="4" t="n">
-        <x:v>159974</x:v>
+        <x:v>168729</x:v>
       </x:c>
       <x:c r="EP4" s="4" t="n">
-        <x:v>160135</x:v>
+        <x:v>168899</x:v>
       </x:c>
       <x:c r="EQ4" s="4" t="n">
-        <x:v>158102</x:v>
+        <x:v>166755</x:v>
       </x:c>
       <x:c r="ER4" s="4" t="n">
-        <x:v>144932</x:v>
+        <x:v>152864</x:v>
       </x:c>
       <x:c r="ES4" s="4" t="n">
-        <x:v>156345</x:v>
+        <x:v>164901</x:v>
       </x:c>
       <x:c r="ET4" s="4" t="n">
-        <x:v>166337</x:v>
+        <x:v>175441</x:v>
       </x:c>
       <x:c r="EU4" s="4" t="n">
-        <x:v>160267</x:v>
+        <x:v>169038</x:v>
       </x:c>
       <x:c r="EV4" s="4" t="n">
-        <x:v>150497</x:v>
+        <x:v>158733</x:v>
       </x:c>
       <x:c r="EW4" s="4" t="n">
-        <x:v>165711</x:v>
+        <x:v>174780</x:v>
       </x:c>
       <x:c r="EX4" s="4" t="n">
-        <x:v>174631</x:v>
+        <x:v>184489</x:v>
       </x:c>
       <x:c r="EY4" s="4" t="n">
-        <x:v>165900</x:v>
+        <x:v>175133</x:v>
       </x:c>
       <x:c r="EZ4" s="4" t="n">
-        <x:v>150983</x:v>
+        <x:v>159177</x:v>
       </x:c>
       <x:c r="FA4" s="4" t="n">
-        <x:v>166526</x:v>
+        <x:v>175255</x:v>
       </x:c>
       <x:c r="FB4" s="4" t="n">
-        <x:v>173200</x:v>
+        <x:v>181429</x:v>
       </x:c>
       <x:c r="FC4" s="4" t="n">
-        <x:v>163755</x:v>
+        <x:v>172194</x:v>
       </x:c>
       <x:c r="FD4" s="4" t="n">
-        <x:v>150724</x:v>
+        <x:v>159320</x:v>
       </x:c>
       <x:c r="FE4" s="4" t="n">
-        <x:v>158310</x:v>
+        <x:v>168400</x:v>
       </x:c>
       <x:c r="FF4" s="4" t="n">
-        <x:v>171636</x:v>
+        <x:v>185948</x:v>
       </x:c>
       <x:c r="FG4" s="4" t="n">
-        <x:v>125583</x:v>
+        <x:v>128911</x:v>
       </x:c>
       <x:c r="FH4" s="4" t="n">
-        <x:v>145978</x:v>
+        <x:v>154565</x:v>
       </x:c>
       <x:c r="FI4" s="4" t="n">
-        <x:v>161599</x:v>
+        <x:v>173866</x:v>
       </x:c>
       <x:c r="FJ4" s="4" t="n">
-        <x:v>175245</x:v>
+        <x:v>184427</x:v>
       </x:c>
       <x:c r="FK4" s="4" t="n">
-        <x:v>163528</x:v>
+        <x:v>172382</x:v>
       </x:c>
       <x:c r="FL4" s="4" t="n">
-        <x:v>151537</x:v>
+        <x:v>162724</x:v>
       </x:c>
       <x:c r="FM4" s="4" t="n">
-        <x:v>168524</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:169">
+        <x:v>182425</x:v>
+      </x:c>
+      <x:c r="FN4" s="4" t="n">
+        <x:v>186145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:170">
       <x:c r="A6" s="5" t="s">
-        <x:v>171</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:169">
+        <x:v>172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:170">
       <x:c r="A7" s="5" t="s">
-        <x:v>172</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:169">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:170">
       <x:c r="A8" s="5" t="s">
-        <x:v>173</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:169">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:170">
       <x:c r="A10" s="0" t="s">
-        <x:v>174</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:169">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:170">
       <x:c r="A11" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:169">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:170">
       <x:c r="A13" s="0" t="s">
-        <x:v>176</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:169">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:170">
       <x:c r="A14" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:169">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:170">
       <x:c r="A16" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:169">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:170">
       <x:c r="A17" s="0" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:169">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:170">
       <x:c r="A18" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:169">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:170">
       <x:c r="A19" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:170">
+      <x:c r="A21" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:170">
+      <x:c r="A22" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:169">
-      <x:c r="A21" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:169">
-      <x:c r="A22" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:169">
+    <x:row r="23" spans="1:170">
       <x:c r="A23" s="0" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:169">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:170">
       <x:c r="A28" s="0" t="s">
-        <x:v>184</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:169">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:170">
       <x:c r="A29" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:169">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:170">
       <x:c r="A31" s="0" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:169">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:170">
       <x:c r="A32" s="0" t="s">
-        <x:v>187</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:169">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:170">
       <x:c r="A34" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:169">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:170">
       <x:c r="A35" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:169">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:170">
       <x:c r="A38" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:169">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:170">
       <x:c r="A41" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:169">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:170">
       <x:c r="A43" s="0" t="s">
-        <x:v>192</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:169">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:170">
       <x:c r="A44" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:169">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:170">
       <x:c r="A46" s="0" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:169">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:170">
       <x:c r="A47" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
-    <x:mergeCell ref="A6:FM6"/>
-    <x:mergeCell ref="A7:FM7"/>
-    <x:mergeCell ref="A8:FM8"/>
+    <x:mergeCell ref="A6:FN6"/>
+    <x:mergeCell ref="A7:FN7"/>
+    <x:mergeCell ref="A8:FN8"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
